--- a/distribuidores_admin/comprobantes/productos3.xlsx
+++ b/distribuidores_admin/comprobantes/productos3.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="247">
   <si>
     <t>Codigo</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Bife</t>
   </si>
   <si>
-    <t>10,5%</t>
-  </si>
-  <si>
     <t>Bola de lomo</t>
   </si>
   <si>
@@ -740,10 +737,25 @@
     <t>$2400</t>
   </si>
   <si>
-    <t>prueba 3</t>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>prueba</t>
   </si>
   <si>
     <t>$2000</t>
+  </si>
+  <si>
+    <t>prueba2</t>
+  </si>
+  <si>
+    <t>$82.68</t>
+  </si>
+  <si>
+    <t>el diablo</t>
+  </si>
+  <si>
+    <t>$666</t>
   </si>
 </sst>
 </file>
@@ -1117,10 +1129,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J218"/>
+  <dimension ref="A1:J220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:J218"/>
+      <selection activeCell="A1" sqref="A1:J220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1128,11 +1140,11 @@
     <col min="1" max="1" width="8" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="34" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="10" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="10" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="10" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="19" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="10" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="8" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="15" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="15" bestFit="true" customWidth="true" style="0"/>
   </cols>
@@ -1192,7 +1204,7 @@
         <v>15</v>
       </c>
       <c r="H2" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I2" s="2">
         <v>0</v>
@@ -1224,7 +1236,7 @@
         <v>15</v>
       </c>
       <c r="H3" s="2">
-        <v>-18</v>
+        <v>-25</v>
       </c>
       <c r="I3" s="2">
         <v>0</v>
@@ -1253,10 +1265,10 @@
         <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H4" s="2">
-        <v>-19</v>
+        <v>-69</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
@@ -1270,10 +1282,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>13</v>
@@ -1302,10 +1314,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>13</v>
@@ -1334,10 +1346,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
@@ -1366,16 +1378,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>14</v>
@@ -1398,7 +1410,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>17</v>
@@ -1416,7 +1428,7 @@
         <v>15</v>
       </c>
       <c r="H9" s="2">
-        <v>-7</v>
+        <v>-42</v>
       </c>
       <c r="I9" s="2">
         <v>0</v>
@@ -1430,10 +1442,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>13</v>
@@ -1448,7 +1460,7 @@
         <v>15</v>
       </c>
       <c r="H10" s="2">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="I10" s="2">
         <v>0</v>
@@ -1462,10 +1474,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>13</v>
@@ -1480,7 +1492,7 @@
         <v>15</v>
       </c>
       <c r="H11" s="2">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>
@@ -1494,16 +1506,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>14</v>
@@ -1526,16 +1538,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>14</v>
@@ -1558,16 +1570,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>14</v>
@@ -1576,7 +1588,7 @@
         <v>15</v>
       </c>
       <c r="H14" s="2">
-        <v>-35</v>
+        <v>-42</v>
       </c>
       <c r="I14" s="2">
         <v>0</v>
@@ -1590,16 +1602,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>14</v>
@@ -1622,16 +1634,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>14</v>
@@ -1654,16 +1666,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="D17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>14</v>
@@ -1686,16 +1698,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>14</v>
@@ -1718,16 +1730,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>14</v>
@@ -1750,16 +1762,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>14</v>
@@ -1782,16 +1794,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>14</v>
@@ -1800,7 +1812,7 @@
         <v>15</v>
       </c>
       <c r="H21" s="2">
-        <v>-3</v>
+        <v>-10</v>
       </c>
       <c r="I21" s="2">
         <v>0</v>
@@ -1814,16 +1826,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="D22" s="2" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>14</v>
@@ -1846,16 +1858,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>14</v>
@@ -1878,16 +1890,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>14</v>
@@ -1910,16 +1922,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="D25" s="2" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>14</v>
@@ -1942,16 +1954,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>14</v>
@@ -1974,16 +1986,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="D27" s="2" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>14</v>
@@ -2006,16 +2018,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="D28" s="2" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>14</v>
@@ -2038,16 +2050,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>14</v>
@@ -2070,16 +2082,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="D30" s="2" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>14</v>
@@ -2102,16 +2114,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D31" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>14</v>
@@ -2134,16 +2146,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D32" s="2" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>14</v>
@@ -2166,16 +2178,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="D33" s="2" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>14</v>
@@ -2198,16 +2210,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="D34" s="2" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>14</v>
@@ -2230,16 +2242,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="D35" s="2" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>14</v>
@@ -2262,16 +2274,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="D36" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>14</v>
@@ -2280,7 +2292,7 @@
         <v>15</v>
       </c>
       <c r="H36" s="2">
-        <v>-45</v>
+        <v>-57</v>
       </c>
       <c r="I36" s="2">
         <v>0</v>
@@ -2294,16 +2306,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>14</v>
@@ -2326,16 +2338,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="D38" s="2" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>14</v>
@@ -2358,16 +2370,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="D39" s="2" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>14</v>
@@ -2390,16 +2402,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="D40" s="2" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>14</v>
@@ -2422,7 +2434,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>11</v>
@@ -2454,16 +2466,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>14</v>
@@ -2486,16 +2498,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="D43" s="2" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>14</v>
@@ -2518,16 +2530,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>14</v>
@@ -2550,16 +2562,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>14</v>
@@ -2582,7 +2594,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>11</v>
@@ -2614,16 +2626,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>14</v>
@@ -2646,10 +2658,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>13</v>
@@ -2678,16 +2690,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>14</v>
@@ -2710,16 +2722,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="D50" s="2" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>14</v>
@@ -2742,16 +2754,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="D51" s="2" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>14</v>
@@ -2774,16 +2786,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="D52" s="2" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>14</v>
@@ -2792,7 +2804,7 @@
         <v>15</v>
       </c>
       <c r="H52" s="2">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="I52" s="2">
         <v>0</v>
@@ -2806,16 +2818,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>14</v>
@@ -2838,16 +2850,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>14</v>
@@ -2870,16 +2882,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="D55" s="2" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>14</v>
@@ -2902,16 +2914,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>14</v>
@@ -2934,16 +2946,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="D57" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>14</v>
@@ -2966,16 +2978,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="D58" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>14</v>
@@ -2998,7 +3010,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>11</v>
@@ -3007,7 +3019,7 @@
         <v>13</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>14</v>
@@ -3030,16 +3042,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>14</v>
@@ -3062,16 +3074,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>14</v>
@@ -3094,16 +3106,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>14</v>
@@ -3126,16 +3138,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>14</v>
@@ -3158,16 +3170,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="D64" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>14</v>
@@ -3190,16 +3202,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>14</v>
@@ -3222,16 +3234,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="D66" s="2" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>14</v>
@@ -3254,16 +3266,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>14</v>
@@ -3286,16 +3298,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>14</v>
@@ -3318,16 +3330,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>14</v>
@@ -3350,16 +3362,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>14</v>
@@ -3382,16 +3394,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>14</v>
@@ -3414,16 +3426,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="D72" s="2" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>14</v>
@@ -3446,16 +3458,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="D73" s="2" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>14</v>
@@ -3478,16 +3490,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>14</v>
@@ -3510,16 +3522,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>14</v>
@@ -3542,16 +3554,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>14</v>
@@ -3574,16 +3586,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>14</v>
@@ -3606,16 +3618,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>14</v>
@@ -3638,16 +3650,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="D79" s="2" t="s">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>14</v>
@@ -3670,16 +3682,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>14</v>
@@ -3702,16 +3714,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>14</v>
@@ -3734,16 +3746,16 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>14</v>
@@ -3766,16 +3778,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="D83" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>14</v>
@@ -3798,16 +3810,16 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="D84" s="2" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>14</v>
@@ -3830,16 +3842,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>14</v>
@@ -3862,16 +3874,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="D86" s="2" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>14</v>
@@ -3894,16 +3906,16 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="D87" s="2" t="s">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>14</v>
@@ -3926,16 +3938,16 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>14</v>
@@ -3958,16 +3970,16 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>14</v>
@@ -3990,16 +4002,16 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="D90" s="2" t="s">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>14</v>
@@ -4022,16 +4034,16 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>14</v>
@@ -4054,16 +4066,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>14</v>
@@ -4086,16 +4098,16 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="D93" s="2" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>14</v>
@@ -4118,16 +4130,16 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>14</v>
@@ -4150,16 +4162,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>14</v>
@@ -4182,16 +4194,16 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>14</v>
@@ -4214,16 +4226,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>14</v>
@@ -4246,16 +4258,16 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>14</v>
@@ -4264,7 +4276,7 @@
         <v>15</v>
       </c>
       <c r="H98" s="2">
-        <v>-14</v>
+        <v>-21</v>
       </c>
       <c r="I98" s="2">
         <v>0</v>
@@ -4278,16 +4290,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>14</v>
@@ -4296,7 +4308,7 @@
         <v>15</v>
       </c>
       <c r="H99" s="2">
-        <v>-11</v>
+        <v>-12</v>
       </c>
       <c r="I99" s="2">
         <v>0</v>
@@ -4310,16 +4322,16 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="D100" s="2" t="s">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>14</v>
@@ -4342,16 +4354,16 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>14</v>
@@ -4360,7 +4372,7 @@
         <v>15</v>
       </c>
       <c r="H101" s="2">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="I101" s="2">
         <v>0</v>
@@ -4374,7 +4386,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>17</v>
@@ -4383,7 +4395,7 @@
         <v>13</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>14</v>
@@ -4406,16 +4418,16 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>14</v>
@@ -4438,16 +4450,16 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>14</v>
@@ -4470,16 +4482,16 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C105" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="D105" s="2" t="s">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>14</v>
@@ -4502,16 +4514,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>14</v>
@@ -4534,16 +4546,16 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>14</v>
@@ -4566,16 +4578,16 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>14</v>
@@ -4598,16 +4610,16 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>14</v>
@@ -4630,16 +4642,16 @@
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C110" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="D110" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>13</v>
+        <v>166</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>14</v>
@@ -4662,16 +4674,16 @@
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="D111" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>14</v>
@@ -4694,16 +4706,16 @@
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="D112" s="2" t="s">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>14</v>
@@ -4726,16 +4738,16 @@
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="D113" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>14</v>
@@ -4758,16 +4770,16 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C114" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="D114" s="2" t="s">
-        <v>13</v>
+        <v>174</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>13</v>
+        <v>174</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>14</v>
@@ -4790,16 +4802,16 @@
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C115" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="D115" s="2" t="s">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>14</v>
@@ -4822,16 +4834,16 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C116" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="D116" s="2" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>14</v>
@@ -4840,7 +4852,7 @@
         <v>15</v>
       </c>
       <c r="H116" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I116" s="2">
         <v>0</v>
@@ -4854,16 +4866,16 @@
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C117" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="D117" s="2" t="s">
-        <v>13</v>
+        <v>180</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>13</v>
+        <v>180</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>14</v>
@@ -4886,16 +4898,16 @@
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="D118" s="2" t="s">
-        <v>13</v>
+        <v>182</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>13</v>
+        <v>182</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>14</v>
@@ -4918,16 +4930,16 @@
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="D119" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>13</v>
+        <v>184</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>14</v>
@@ -4950,16 +4962,16 @@
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C120" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="D120" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>14</v>
@@ -4982,16 +4994,16 @@
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>14</v>
@@ -5014,16 +5026,16 @@
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>14</v>
@@ -5046,16 +5058,16 @@
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C123" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="D123" s="2" t="s">
-        <v>13</v>
+        <v>190</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>13</v>
+        <v>190</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>14</v>
@@ -5078,7 +5090,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>13</v>
@@ -5110,16 +5122,16 @@
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>14</v>
@@ -5142,16 +5154,16 @@
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C126" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="D126" s="2" t="s">
-        <v>13</v>
+        <v>194</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>13</v>
+        <v>194</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>14</v>
@@ -5174,16 +5186,16 @@
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C127" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="D127" s="2" t="s">
-        <v>13</v>
+        <v>196</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>13</v>
+        <v>196</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>14</v>
@@ -5206,16 +5218,16 @@
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C128" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="D128" s="2" t="s">
-        <v>13</v>
+        <v>198</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>13</v>
+        <v>198</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>14</v>
@@ -5238,16 +5250,16 @@
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C129" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="D129" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>14</v>
@@ -5270,16 +5282,16 @@
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C130" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>203</v>
-      </c>
       <c r="D130" s="2" t="s">
-        <v>13</v>
+        <v>202</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>13</v>
+        <v>202</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>14</v>
@@ -5302,16 +5314,16 @@
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>13</v>
+        <v>202</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>13</v>
+        <v>202</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>14</v>
@@ -5334,16 +5346,16 @@
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C132" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>206</v>
-      </c>
       <c r="D132" s="2" t="s">
-        <v>13</v>
+        <v>205</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>13</v>
+        <v>205</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>14</v>
@@ -5366,16 +5378,16 @@
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C133" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="D133" s="2" t="s">
-        <v>13</v>
+        <v>207</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>13</v>
+        <v>207</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>14</v>
@@ -5398,16 +5410,16 @@
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="D134" s="2" t="s">
-        <v>13</v>
+        <v>209</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>13</v>
+        <v>209</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>14</v>
@@ -5430,16 +5442,16 @@
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C135" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>212</v>
-      </c>
       <c r="D135" s="2" t="s">
-        <v>13</v>
+        <v>211</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>13</v>
+        <v>211</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>14</v>
@@ -5462,16 +5474,16 @@
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C136" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="D136" s="2" t="s">
-        <v>13</v>
+        <v>213</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>13</v>
+        <v>213</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>14</v>
@@ -5494,16 +5506,16 @@
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C137" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="D137" s="2" t="s">
-        <v>13</v>
+        <v>215</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>13</v>
+        <v>215</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>14</v>
@@ -5526,16 +5538,16 @@
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>13</v>
+        <v>205</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>13</v>
+        <v>205</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>14</v>
@@ -5558,16 +5570,16 @@
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C139" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>219</v>
-      </c>
       <c r="D139" s="2" t="s">
-        <v>13</v>
+        <v>218</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>13</v>
+        <v>218</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>14</v>
@@ -5590,16 +5602,16 @@
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>14</v>
@@ -5622,16 +5634,16 @@
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C141" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>222</v>
-      </c>
       <c r="D141" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>13</v>
+        <v>221</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>14</v>
@@ -5654,16 +5666,16 @@
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>13</v>
+        <v>221</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>14</v>
@@ -5686,16 +5698,16 @@
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C143" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="D143" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>14</v>
@@ -5718,16 +5730,16 @@
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C144" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>227</v>
-      </c>
       <c r="D144" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>13</v>
+        <v>226</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>14</v>
@@ -5750,16 +5762,16 @@
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C145" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="D145" s="2" t="s">
-        <v>13</v>
+        <v>228</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>13</v>
+        <v>228</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>14</v>
@@ -5782,16 +5794,16 @@
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>13</v>
+        <v>228</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>13</v>
+        <v>228</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>14</v>
@@ -5814,16 +5826,16 @@
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C147" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>232</v>
-      </c>
       <c r="D147" s="2" t="s">
-        <v>13</v>
+        <v>231</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>13</v>
+        <v>231</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>14</v>
@@ -5846,16 +5858,16 @@
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C148" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="D148" s="2" t="s">
-        <v>13</v>
+        <v>233</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>13</v>
+        <v>233</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>14</v>
@@ -5878,16 +5890,16 @@
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C149" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="D149" s="2" t="s">
-        <v>13</v>
+        <v>235</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>13</v>
+        <v>235</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>14</v>
@@ -5910,16 +5922,16 @@
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>14</v>
@@ -5950,7 +5962,7 @@
         <v>13</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G151" s="2"/>
       <c r="H151" s="2">
@@ -5976,7 +5988,7 @@
         <v>13</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G152" s="2"/>
       <c r="H152" s="2">
@@ -6002,7 +6014,7 @@
         <v>13</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G153" s="2"/>
       <c r="H153" s="2">
@@ -6028,7 +6040,7 @@
         <v>13</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G154" s="2"/>
       <c r="H154" s="2">
@@ -6054,7 +6066,7 @@
         <v>13</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G155" s="2"/>
       <c r="H155" s="2">
@@ -6080,7 +6092,7 @@
         <v>13</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G156" s="2"/>
       <c r="H156" s="2">
@@ -6106,7 +6118,7 @@
         <v>13</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G157" s="2"/>
       <c r="H157" s="2">
@@ -6132,7 +6144,7 @@
         <v>13</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G158" s="2"/>
       <c r="H158" s="2">
@@ -6158,7 +6170,7 @@
         <v>13</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G159" s="2"/>
       <c r="H159" s="2">
@@ -6184,7 +6196,7 @@
         <v>13</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G160" s="2"/>
       <c r="H160" s="2">
@@ -6210,7 +6222,7 @@
         <v>13</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G161" s="2"/>
       <c r="H161" s="2">
@@ -6236,7 +6248,7 @@
         <v>13</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G162" s="2"/>
       <c r="H162" s="2">
@@ -6262,7 +6274,7 @@
         <v>13</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G163" s="2"/>
       <c r="H163" s="2">
@@ -6288,7 +6300,7 @@
         <v>13</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G164" s="2"/>
       <c r="H164" s="2">
@@ -6314,7 +6326,7 @@
         <v>13</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G165" s="2"/>
       <c r="H165" s="2">
@@ -6340,7 +6352,7 @@
         <v>13</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G166" s="2"/>
       <c r="H166" s="2">
@@ -6366,7 +6378,7 @@
         <v>13</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G167" s="2"/>
       <c r="H167" s="2">
@@ -6392,7 +6404,7 @@
         <v>13</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G168" s="2"/>
       <c r="H168" s="2">
@@ -6418,7 +6430,7 @@
         <v>13</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G169" s="2"/>
       <c r="H169" s="2">
@@ -6444,7 +6456,7 @@
         <v>13</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G170" s="2"/>
       <c r="H170" s="2">
@@ -6470,7 +6482,7 @@
         <v>13</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G171" s="2"/>
       <c r="H171" s="2">
@@ -6496,7 +6508,7 @@
         <v>13</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G172" s="2"/>
       <c r="H172" s="2">
@@ -6522,7 +6534,7 @@
         <v>13</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G173" s="2"/>
       <c r="H173" s="2">
@@ -6548,7 +6560,7 @@
         <v>13</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G174" s="2"/>
       <c r="H174" s="2">
@@ -6574,7 +6586,7 @@
         <v>13</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G175" s="2"/>
       <c r="H175" s="2">
@@ -6600,7 +6612,7 @@
         <v>13</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G176" s="2"/>
       <c r="H176" s="2">
@@ -6626,7 +6638,7 @@
         <v>13</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G177" s="2"/>
       <c r="H177" s="2">
@@ -6652,7 +6664,7 @@
         <v>13</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G178" s="2"/>
       <c r="H178" s="2">
@@ -6678,7 +6690,7 @@
         <v>13</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G179" s="2"/>
       <c r="H179" s="2">
@@ -6704,7 +6716,7 @@
         <v>13</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G180" s="2"/>
       <c r="H180" s="2">
@@ -6730,7 +6742,7 @@
         <v>13</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G181" s="2"/>
       <c r="H181" s="2">
@@ -6756,7 +6768,7 @@
         <v>13</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G182" s="2"/>
       <c r="H182" s="2">
@@ -6782,7 +6794,7 @@
         <v>13</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G183" s="2"/>
       <c r="H183" s="2">
@@ -6808,7 +6820,7 @@
         <v>13</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G184" s="2"/>
       <c r="H184" s="2">
@@ -6834,7 +6846,7 @@
         <v>13</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G185" s="2"/>
       <c r="H185" s="2">
@@ -6860,7 +6872,7 @@
         <v>13</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G186" s="2"/>
       <c r="H186" s="2">
@@ -6886,7 +6898,7 @@
         <v>13</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G187" s="2"/>
       <c r="H187" s="2">
@@ -6912,7 +6924,7 @@
         <v>13</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G188" s="2"/>
       <c r="H188" s="2">
@@ -6938,7 +6950,7 @@
         <v>13</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G189" s="2"/>
       <c r="H189" s="2">
@@ -6964,7 +6976,7 @@
         <v>13</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G190" s="2"/>
       <c r="H190" s="2">
@@ -6990,7 +7002,7 @@
         <v>13</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G191" s="2"/>
       <c r="H191" s="2">
@@ -7016,7 +7028,7 @@
         <v>13</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G192" s="2"/>
       <c r="H192" s="2">
@@ -7042,7 +7054,7 @@
         <v>13</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G193" s="2"/>
       <c r="H193" s="2">
@@ -7068,7 +7080,7 @@
         <v>13</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G194" s="2"/>
       <c r="H194" s="2">
@@ -7094,7 +7106,7 @@
         <v>13</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G195" s="2"/>
       <c r="H195" s="2">
@@ -7120,7 +7132,7 @@
         <v>13</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G196" s="2"/>
       <c r="H196" s="2">
@@ -7146,7 +7158,7 @@
         <v>13</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G197" s="2"/>
       <c r="H197" s="2">
@@ -7172,7 +7184,7 @@
         <v>13</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G198" s="2"/>
       <c r="H198" s="2">
@@ -7198,7 +7210,7 @@
         <v>13</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G199" s="2"/>
       <c r="H199" s="2">
@@ -7224,7 +7236,7 @@
         <v>13</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G200" s="2"/>
       <c r="H200" s="2">
@@ -7250,7 +7262,7 @@
         <v>13</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G201" s="2"/>
       <c r="H201" s="2">
@@ -7276,7 +7288,7 @@
         <v>13</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G202" s="2"/>
       <c r="H202" s="2">
@@ -7302,7 +7314,7 @@
         <v>13</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G203" s="2"/>
       <c r="H203" s="2">
@@ -7328,7 +7340,7 @@
         <v>13</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G204" s="2"/>
       <c r="H204" s="2">
@@ -7354,7 +7366,7 @@
         <v>13</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G205" s="2"/>
       <c r="H205" s="2">
@@ -7380,7 +7392,7 @@
         <v>13</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G206" s="2"/>
       <c r="H206" s="2">
@@ -7406,7 +7418,7 @@
         <v>13</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G207" s="2"/>
       <c r="H207" s="2">
@@ -7432,7 +7444,7 @@
         <v>13</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G208" s="2"/>
       <c r="H208" s="2">
@@ -7458,7 +7470,7 @@
         <v>13</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G209" s="2"/>
       <c r="H209" s="2">
@@ -7484,7 +7496,7 @@
         <v>13</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G210" s="2"/>
       <c r="H210" s="2">
@@ -7510,7 +7522,7 @@
         <v>13</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G211" s="2"/>
       <c r="H211" s="2">
@@ -7536,7 +7548,7 @@
         <v>13</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G212" s="2"/>
       <c r="H212" s="2">
@@ -7562,7 +7574,7 @@
         <v>13</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G213" s="2"/>
       <c r="H213" s="2">
@@ -7588,7 +7600,7 @@
         <v>13</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G214" s="2"/>
       <c r="H214" s="2">
@@ -7614,7 +7626,7 @@
         <v>13</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G215" s="2"/>
       <c r="H215" s="2">
@@ -7640,7 +7652,7 @@
         <v>13</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G216" s="2"/>
       <c r="H216" s="2">
@@ -7658,23 +7670,25 @@
         <v>10000</v>
       </c>
       <c r="B217" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C217" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C217" s="2" t="s">
+      <c r="D217" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G217" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D217" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G217" s="2"/>
       <c r="H217" s="2">
-        <v>-2</v>
+        <v>-12002</v>
       </c>
       <c r="I217" s="2">
         <v>0</v>
@@ -7685,7 +7699,7 @@
     </row>
     <row r="218" spans="1:10">
       <c r="A218" s="2">
-        <v>2000</v>
+        <v>7777</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>241</v>
@@ -7700,18 +7714,80 @@
         <v>13</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G218" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H218" s="2">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="I218" s="2">
         <v>0</v>
       </c>
       <c r="J218" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10">
+      <c r="A219" s="2">
+        <v>78900</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G219" s="2"/>
+      <c r="H219" s="2">
+        <v>0</v>
+      </c>
+      <c r="I219" s="2">
+        <v>0</v>
+      </c>
+      <c r="J219" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10">
+      <c r="A220" s="2">
+        <v>6666</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H220" s="2">
+        <v>0</v>
+      </c>
+      <c r="I220" s="2">
+        <v>0</v>
+      </c>
+      <c r="J220" s="2">
         <v>0</v>
       </c>
     </row>
